--- a/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/Cache and checkpoint performance analysis (001).xlsx
+++ b/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/Cache and checkpoint performance analysis (001).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgp/Workspaces/Book/net.jgp.books.spark.ch16/src/main/java/net/jgp/books/spark/ch16/lab100_cache_checkpoint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D153CC8B-4441-B74C-AC2B-577450B9E8EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DDF77A-E25C-A445-88A1-DE48D40F26A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27160" yWindow="5660" windowWidth="45220" windowHeight="27580" xr2:uid="{99E4B593-27CD-5046-B562-66C9A4DBDE3A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38580" windowHeight="42240" xr2:uid="{99E4B593-27CD-5046-B562-66C9A4DBDE3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="8">
   <si>
     <t>No cache</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Avergae</t>
+  </si>
+  <si>
+    <t>NE Checkpoint</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -167,21 +170,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -197,66 +185,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -297,71 +225,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22" customBuiltin="1"/>
@@ -405,7 +300,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$40</c:f>
+              <c:f>Sheet1!$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -440,56 +335,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$R$2</c:f>
+              <c:f>Sheet1!$H$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3000000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>20000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -497,41 +380,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$40:$R$40</c:f>
+              <c:f>Sheet1!$H$48:$S$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>28.51</c:v>
+                  <c:v>28.743333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.893500000000001</c:v>
+                  <c:v>17.617000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.215125</c:v>
+                  <c:v>18.59975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.816500000000001</c:v>
+                  <c:v>18.793875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.506437500000001</c:v>
+                  <c:v>18.34525</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>18.581125</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>20.725200000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>19.888916666666667</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>15.564857142857143</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.358700000000002</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.7354</c:v>
+                  <c:v>16.4575</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>16.042133333333332</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>16.269749999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -549,7 +435,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$41</c:f>
+              <c:f>Sheet1!$B$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -584,56 +470,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$R$2</c:f>
+              <c:f>Sheet1!$H$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3000000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>20000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -641,41 +515,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$41:$R$41</c:f>
+              <c:f>Sheet1!$H$49:$S$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>19.314999999999998</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.583499999999999</c:v>
+                  <c:v>12.382000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.919124999999999</c:v>
+                  <c:v>12.95125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.464</c:v>
+                  <c:v>12.000999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.115937499999999</c:v>
+                  <c:v>11.200583333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>12.238958333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>13.43455</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>12.700916666666666</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10.194714285714285</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.0305</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.296799999999999</c:v>
+                  <c:v>10.617949999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>10.742366666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10.55945</c:v>
                 </c:pt>
               </c:numCache>
@@ -693,7 +570,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$42</c:f>
+              <c:f>Sheet1!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -728,56 +605,44 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$R$2</c:f>
+              <c:f>Sheet1!$H$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000000</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3000000</c:v>
+                  <c:v>7000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5000000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>20000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -785,41 +650,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$42:$R$42</c:f>
+              <c:f>Sheet1!$H$50:$S$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>14.7</c:v>
+                  <c:v>14.411666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0945</c:v>
+                  <c:v>7.6980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4797499999999992</c:v>
+                  <c:v>9.6895000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9986666666666668</c:v>
+                  <c:v>8.6618750000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.34625</c:v>
+                  <c:v>9.4334999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>10.124916666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>8.8902999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>9.0338333333333338</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.6379999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.3180999999999994</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.575466666666667</c:v>
+                  <c:v>7.8594500000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>9.8487999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>8.4014999999999986</c:v>
                 </c:pt>
               </c:numCache>
@@ -829,6 +697,141 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7AD8-9742-99D8-B0D666FDF57D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NE Checkpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$51:$S$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>14.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.068499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1957000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1798666666666655</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8EB-F949-8178-7755B193BEF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -900,6 +903,7 @@
         <c:axId val="662876720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -968,8 +972,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.13072381577302838"/>
           <c:y val="5.0121391076115483E-2"/>
-          <c:w val="0.16921759780027495"/>
-          <c:h val="0.17974481292028277"/>
+          <c:w val="0.42988177531587624"/>
+          <c:h val="4.6875328083989511E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1070,7 +1074,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$36</c:f>
+              <c:f>Sheet1!$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1090,10 +1094,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$R$2</c:f>
+              <c:f>Sheet1!$C$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1113,33 +1117,36 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2000000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3000000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4000000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>5000000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>6000000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>7000000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15000000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>20000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1147,56 +1154,59 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$36:$R$36</c:f>
+              <c:f>Sheet1!$C$43:$S$43</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>267.5</c:v>
+                  <c:v>260.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2030.75</c:v>
+                  <c:v>2114.166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2126.5</c:v>
+                  <c:v>2137.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2309.666666666667</c:v>
+                  <c:v>2343.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2645.5</c:v>
+                  <c:v>2670.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2851</c:v>
+                  <c:v>2874.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14893.5</c:v>
+                  <c:v>8808.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38430.25</c:v>
+                  <c:v>18599.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56449.5</c:v>
+                  <c:v>37587.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74025.75</c:v>
+                  <c:v>55035.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>74324.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>103626</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>119333.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>108954</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>173587</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>236031</c:v>
+                  <c:v>164575</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>240632</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>325395</c:v>
                 </c:pt>
               </c:numCache>
@@ -1213,7 +1223,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$37</c:f>
+              <c:f>Sheet1!$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1233,10 +1243,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$R$2</c:f>
+              <c:f>Sheet1!$C$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1256,33 +1266,36 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2000000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3000000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4000000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>5000000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>6000000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>7000000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15000000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>20000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1290,56 +1303,59 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$37:$R$37</c:f>
+              <c:f>Sheet1!$C$44:$S$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>2127</c:v>
+                  <c:v>2157.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1077.75</c:v>
+                  <c:v>1170.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1298</c:v>
+                  <c:v>1301.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1320.1666666666665</c:v>
+                  <c:v>1286.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1168.5</c:v>
+                  <c:v>1183.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1931.5</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10583.5</c:v>
+                  <c:v>6191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23838.25</c:v>
+                  <c:v>12951.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34392</c:v>
+                  <c:v>24002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48463.75</c:v>
+                  <c:v>33601.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>48955.833333333328</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>67172.75</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>76205.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>71363</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>110305</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>169452</c:v>
+                  <c:v>106179.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>161135.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>211189</c:v>
                 </c:pt>
               </c:numCache>
@@ -1356,7 +1372,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$38</c:f>
+              <c:f>Sheet1!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1376,10 +1392,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$R$2</c:f>
+              <c:f>Sheet1!$C$1:$S$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1399,33 +1415,36 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2000000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3000000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>4000000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>5000000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>6000000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>7000000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15000000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>20000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1433,56 +1452,59 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$38:$R$38</c:f>
+              <c:f>Sheet1!$C$45:$S$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1310.5</c:v>
+                  <c:v>1352.1666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1007.5</c:v>
+                  <c:v>1004.3333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1064.5</c:v>
+                  <c:v>1099.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1072.8333333333335</c:v>
+                  <c:v>1136.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1066</c:v>
+                  <c:v>1097.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1470</c:v>
+                  <c:v>1441.1666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7094.5</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16959.5</c:v>
+                  <c:v>9689.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26996</c:v>
+                  <c:v>17323.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41385</c:v>
+                  <c:v>28300.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>40499.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>44451.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>54203</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>53466</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>83181</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>158632</c:v>
+                  <c:v>78594.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>147732</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>168030</c:v>
                 </c:pt>
               </c:numCache>
@@ -1491,6 +1513,95 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-984D-F442-AFBF-4FFF90D267F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NE Checkpoint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$46:$S$46</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1412.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3225.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>137698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C18F-8546-AC59-02E2D8A4AE9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1627,9 +1738,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13072381577302838"/>
-          <c:y val="5.0121391076115483E-2"/>
-          <c:w val="0.30165463692038497"/>
+          <c:x val="0.58072375328083992"/>
+          <c:y val="0.66956583552055993"/>
+          <c:w val="0.32760634446556247"/>
           <c:h val="4.6875328083989511E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2796,15 +2907,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>292100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2834,13 +2945,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3168,1667 +3279,2295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AD6FF0-1D1E-9B4C-96FF-E0188D0144AB}">
-  <dimension ref="A2:R42"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="960" activePane="bottomLeft"/>
+      <selection sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="16" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="16" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18">
+    <row r="1" spans="1:19">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D1" s="10">
         <v>10</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E1" s="10">
         <v>100</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F1" s="10">
         <v>1000</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G1" s="10">
         <v>10000</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H1" s="10">
         <v>100000</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I1" s="10">
+        <v>500000</v>
+      </c>
+      <c r="J1" s="10">
         <v>1000000</v>
       </c>
-      <c r="J2" s="18">
+      <c r="K1" s="10">
         <v>2000000</v>
       </c>
-      <c r="K2" s="18">
+      <c r="L1" s="10">
         <v>3000000</v>
       </c>
-      <c r="L2" s="18">
+      <c r="M1" s="10">
         <v>4000000</v>
       </c>
-      <c r="M2" s="18">
+      <c r="N1" s="10">
         <v>5000000</v>
       </c>
-      <c r="N2" s="18">
+      <c r="O1" s="10">
         <v>6000000</v>
       </c>
-      <c r="O2" s="18">
+      <c r="P1" s="10">
         <v>7000000</v>
       </c>
-      <c r="P2" s="18">
+      <c r="Q1" s="10">
         <v>10000000</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="R1" s="10">
         <v>15000000</v>
       </c>
-      <c r="R2" s="19">
+      <c r="S1" s="11">
         <v>20000000</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:19" ht="26" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C3" s="4">
         <v>271</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D3" s="4">
         <v>1954</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E3" s="4">
         <v>2228</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F3" s="4">
         <v>2969</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G3" s="4">
         <v>2857</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H3" s="4">
         <v>3115</v>
       </c>
-      <c r="I4" s="4">
-        <v>12786</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I3" s="4">
+        <v>9047</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
         <v>43568</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L3" s="4">
         <v>60118</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M3" s="4">
         <v>79436</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N3" s="4">
         <v>125011</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O3" s="4">
         <v>139410</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="14"/>
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C4" s="6">
         <v>1802</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D4" s="6">
         <v>1169</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E4" s="6">
         <v>1332</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F4" s="6">
         <v>1367</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G4" s="6">
         <v>1305</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H4" s="6">
         <v>2112</v>
       </c>
-      <c r="I5" s="7">
-        <v>9850</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I4" s="6">
+        <v>6227</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>25139</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L4" s="6">
         <v>39795</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M4" s="6">
         <v>50897</v>
       </c>
-      <c r="M5" s="7">
+      <c r="N4" s="6">
         <v>81679</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O4" s="6">
         <v>87593</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8" t="s">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="14"/>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C5" s="6">
         <v>1154</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D5" s="6">
         <v>1156</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E5" s="6">
         <v>1192</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F5" s="6">
         <v>1115</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G5" s="6">
         <v>1199</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H5" s="6">
         <v>1674</v>
       </c>
-      <c r="I6" s="7">
-        <v>5297</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="I5" s="6">
+        <v>3764</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
         <v>17692</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L5" s="6">
         <v>28659</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M5" s="6">
         <v>56501</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N5" s="6">
         <v>56736</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O5" s="6">
         <v>64244</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8" t="s">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
+    <row r="6" spans="1:19">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
+        <v>3248</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+    <row r="7" spans="1:19">
+      <c r="A7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="7"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>278</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>2519</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="E8" s="6">
+        <v>2273</v>
+      </c>
+      <c r="F8" s="6">
         <v>2105</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
+      <c r="G8" s="6">
+        <v>2957</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3250</v>
+      </c>
+      <c r="I8" s="6">
+        <v>8570</v>
+      </c>
+      <c r="J8" s="6">
+        <v>19720</v>
+      </c>
+      <c r="K8" s="6">
+        <v>40198</v>
+      </c>
+      <c r="L8" s="6">
+        <v>54463</v>
+      </c>
+      <c r="M8" s="6">
         <v>84295</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="14"/>
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1785</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1312</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="E9" s="6">
+        <v>1347</v>
+      </c>
+      <c r="F9" s="6">
         <v>1240</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7">
+      <c r="G9" s="6">
+        <v>1364</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2473</v>
+      </c>
+      <c r="I9" s="6">
+        <v>6155</v>
+      </c>
+      <c r="J9" s="6">
+        <v>14459</v>
+      </c>
+      <c r="K9" s="6">
+        <v>25794</v>
+      </c>
+      <c r="L9" s="6">
+        <v>36634</v>
+      </c>
+      <c r="M9" s="6">
         <v>57848</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="8" t="s">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1125</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>1048</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="E10" s="6">
+        <v>1331</v>
+      </c>
+      <c r="F10" s="6">
         <v>1309</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7">
+      <c r="G10" s="6">
+        <v>1326</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1558</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3934</v>
+      </c>
+      <c r="J10" s="6">
+        <v>10461</v>
+      </c>
+      <c r="K10" s="6">
+        <v>19149</v>
+      </c>
+      <c r="L10" s="6">
+        <v>33877</v>
+      </c>
+      <c r="M10" s="6">
         <v>42495</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8" t="s">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
+    <row r="11" spans="1:19">
+      <c r="A11" s="14"/>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>976</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>1205</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1383</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3203</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
+        <v>19968</v>
+      </c>
+      <c r="L11" s="6">
+        <v>25596</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" s="14"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="14"/>
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="7">
-        <v>306</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>2754</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="8" t="s">
+      <c r="C13" s="6">
+        <v>262</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2737</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>2957</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>3120</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <v>20677</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6">
+        <v>83658</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="1:19">
+      <c r="A14" s="14"/>
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7">
-        <v>2791</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
-        <v>1672</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="8" t="s">
+      <c r="C14" s="6">
+        <v>2975</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1798</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>1471</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
+        <v>2042</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
+        <v>14712</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6">
+        <v>57325</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:19">
+      <c r="A15" s="14"/>
+      <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
-        <v>1027</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>1112</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="8" t="s">
+      <c r="C15" s="6">
+        <v>1277</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1083</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>1494</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>1617</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
+        <v>10513</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6">
+        <v>44186</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="8"/>
+    <row r="16" spans="1:19">
+      <c r="A16" s="14"/>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
+        <v>795</v>
+      </c>
+      <c r="D16" s="6">
+        <v>748</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>1442</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>1442</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
+        <v>10430</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6">
+        <v>40274</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="1:19">
+      <c r="A17" s="14"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="7"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="14"/>
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="9">
-        <f t="shared" ref="C16:P18" si="0">IF(ISERROR(AVERAGE(C12,C8,C4)),"",AVERAGE(C12,C8,C4))</f>
-        <v>285</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:Q18" si="0">IF(ISERROR(AVERAGE(C13,C8,C3)),"",AVERAGE(C13,C8,C3))</f>
+        <v>270.33333333333331</v>
+      </c>
+      <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>2236.5</v>
-      </c>
-      <c r="E16" s="9">
+        <v>2403.3333333333335</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>2228</v>
-      </c>
-      <c r="F16" s="9">
+        <v>2250.5</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>2609.3333333333335</v>
-      </c>
-      <c r="G16" s="9">
+        <v>2677</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>2857</v>
-      </c>
-      <c r="H16" s="9">
+        <v>2907</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>3115</v>
-      </c>
-      <c r="I16" s="9">
+        <v>3161.6666666666665</v>
+      </c>
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
-        <v>12786</v>
-      </c>
-      <c r="J16" s="9">
+        <v>8808.5</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="0"/>
-        <v>43568</v>
-      </c>
-      <c r="K16" s="9">
+        <v>20198.5</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="0"/>
-        <v>60118</v>
-      </c>
-      <c r="L16" s="9">
+        <v>41883</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
-        <v>81865.5</v>
-      </c>
-      <c r="M16" s="9">
+        <v>57290.5</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>82463</v>
+      </c>
+      <c r="N18" s="2">
         <f t="shared" si="0"/>
         <v>125011</v>
       </c>
-      <c r="N16" s="9">
+      <c r="O18" s="2">
         <f t="shared" si="0"/>
         <v>139410</v>
       </c>
-      <c r="O16" s="9" t="str">
+      <c r="P18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P16" s="9" t="str">
+      <c r="Q18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="10" t="str">
-        <f>IF(ISERROR(AVERAGE(R12,R8,R4)),"",AVERAGE(R12,R8,R4))</f>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(S13,S8,S3)),"",AVERAGE(S13,S8,S3))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+    <row r="19" spans="1:19">
+      <c r="A19" s="14"/>
+      <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="9">
-        <f t="shared" si="0"/>
-        <v>2126</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" si="0"/>
-        <v>1240.5</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
-        <v>1332</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:Q19" si="1">IF(ISERROR(AVERAGE(C14,C9,C4)),"",AVERAGE(C14,C9,C4))</f>
+        <v>2187.3333333333335</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
         <v>1426.3333333333333</v>
       </c>
-      <c r="G17" s="9">
-        <f t="shared" si="0"/>
-        <v>1305</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" si="0"/>
-        <v>2112</v>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" si="0"/>
-        <v>9850</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="0"/>
-        <v>25139</v>
-      </c>
-      <c r="K17" s="9">
-        <f t="shared" si="0"/>
-        <v>39795</v>
-      </c>
-      <c r="L17" s="9">
-        <f t="shared" si="0"/>
-        <v>54372.5</v>
-      </c>
-      <c r="M17" s="9">
-        <f t="shared" si="0"/>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>1339.5</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>1359.3333333333333</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>1334.5</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>2209</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>6191</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>14585.5</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
+        <v>25466.5</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
+        <v>38214.5</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="1"/>
+        <v>55356.666666666664</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="1"/>
         <v>81679</v>
       </c>
-      <c r="N17" s="9">
-        <f t="shared" si="0"/>
+      <c r="O19" s="2">
+        <f t="shared" si="1"/>
         <v>87593</v>
       </c>
-      <c r="O17" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="P19" s="2" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P17" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="10" t="str">
-        <f>IF(ISERROR(AVERAGE(R13,R9,R5)),"",AVERAGE(R13,R9,R5))</f>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(S14,S9,S4)),"",AVERAGE(S14,S9,S4))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+    <row r="20" spans="1:19">
+      <c r="A20" s="14"/>
+      <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="13">
-        <f t="shared" si="0"/>
-        <v>1102</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="0"/>
-        <v>1102</v>
-      </c>
-      <c r="E18" s="13">
-        <f t="shared" si="0"/>
-        <v>1192</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="0"/>
-        <v>1178.6666666666667</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" si="0"/>
-        <v>1199</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="0"/>
-        <v>1674</v>
-      </c>
-      <c r="I18" s="13">
-        <f t="shared" si="0"/>
-        <v>5297</v>
-      </c>
-      <c r="J18" s="13">
-        <f t="shared" si="0"/>
-        <v>17692</v>
-      </c>
-      <c r="K18" s="13">
-        <f t="shared" si="0"/>
-        <v>28659</v>
-      </c>
-      <c r="L18" s="13">
-        <f t="shared" si="0"/>
-        <v>49498</v>
-      </c>
-      <c r="M18" s="13">
-        <f t="shared" si="0"/>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:Q20" si="2">IF(ISERROR(AVERAGE(C15,C10,C5)),"",AVERAGE(C15,C10,C5))</f>
+        <v>1185.3333333333333</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>1095.6666666666667</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="2"/>
+        <v>1261.5</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>1306</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>1262.5</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>1616.3333333333333</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="2"/>
+        <v>3849</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>10487</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="2"/>
+        <v>18420.5</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="2"/>
+        <v>31268</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>47727.333333333336</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="2"/>
         <v>56736</v>
       </c>
-      <c r="N18" s="13">
-        <f t="shared" si="0"/>
+      <c r="O20" s="2">
+        <f t="shared" si="2"/>
         <v>64244</v>
       </c>
-      <c r="O18" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="P20" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P18" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="14" t="str">
-        <f>IF(ISERROR(AVERAGE(R14,R10,R6)),"",AVERAGE(R14,R10,R6))</f>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(S15,S10,S5)),"",AVERAGE(S15,S10,S5))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:19">
+      <c r="A21" s="15"/>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:Q21" si="3">IF(ISERROR(AVERAGE(C16,C11,C6)),"",AVERAGE(C16,C11,C6))</f>
+        <v>795</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="3"/>
+        <v>748</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="3"/>
+        <v>976</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="3"/>
+        <v>1442</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>1205</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="3"/>
+        <v>1412.5</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>3225.5</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="3"/>
+        <v>10430</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="3"/>
+        <v>19968</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="3"/>
+        <v>25596</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="3"/>
+        <v>40274</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2" t="str">
+        <f>IF(ISERROR(AVERAGE(S16,S11,S6)),"",AVERAGE(S16,S11,S6))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="26" customHeight="1">
+      <c r="A23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C23" s="4">
         <v>250</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D23" s="4">
         <v>1825</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E23" s="4">
         <v>2025</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F23" s="4">
         <v>2010</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G23" s="4">
         <v>2434</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H23" s="4">
         <v>2587</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
         <v>17001</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K23" s="4">
         <v>34931</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L23" s="4">
         <v>52781</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M23" s="4">
         <v>66186</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N23" s="4">
         <v>82034</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O23" s="4">
         <v>99257</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P23" s="4">
         <v>108954</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q23" s="4">
         <v>173587</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R23" s="4">
         <v>236031</v>
       </c>
-      <c r="R20" s="5">
+      <c r="S23" s="5">
         <v>325395</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+    <row r="24" spans="1:19">
+      <c r="A24" s="14"/>
+      <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C24" s="6">
         <v>2128</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D24" s="6">
         <v>915</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E24" s="6">
         <v>1264</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F24" s="6">
         <v>1214</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G24" s="6">
         <v>1032</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H24" s="6">
         <v>1751</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6">
         <v>11317</v>
       </c>
-      <c r="J21" s="7">
+      <c r="K24" s="6">
         <v>23501</v>
       </c>
-      <c r="K21" s="7">
+      <c r="L24" s="6">
         <v>28989</v>
       </c>
-      <c r="L21" s="7">
+      <c r="M24" s="6">
         <v>42555</v>
       </c>
-      <c r="M21" s="7">
+      <c r="N24" s="6">
         <v>52604</v>
       </c>
-      <c r="N21" s="7">
+      <c r="O24" s="6">
         <v>64818</v>
       </c>
-      <c r="O21" s="7">
+      <c r="P24" s="6">
         <v>71363</v>
       </c>
-      <c r="P21" s="7">
+      <c r="Q24" s="6">
         <v>110305</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="R24" s="6">
         <v>169452</v>
       </c>
-      <c r="R21" s="8">
+      <c r="S24" s="7">
         <v>211189</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+    <row r="25" spans="1:19">
+      <c r="A25" s="14"/>
+      <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C25" s="6">
         <v>1519</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D25" s="6">
         <v>913</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E25" s="6">
         <v>937</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F25" s="6">
         <v>967</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G25" s="6">
         <v>933</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H25" s="6">
         <v>1266</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
         <v>8892</v>
       </c>
-      <c r="J22" s="7">
+      <c r="K25" s="6">
         <v>17077</v>
       </c>
-      <c r="K22" s="7">
+      <c r="L25" s="6">
         <v>25333</v>
       </c>
-      <c r="L22" s="7">
+      <c r="M25" s="6">
         <v>33272</v>
       </c>
-      <c r="M22" s="7">
+      <c r="N25" s="6">
         <v>27616</v>
       </c>
-      <c r="N22" s="7">
+      <c r="O25" s="6">
         <v>44162</v>
       </c>
-      <c r="O22" s="7">
+      <c r="P25" s="6">
         <v>53466</v>
       </c>
-      <c r="P22" s="7">
+      <c r="Q25" s="6">
         <v>83181</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="R25" s="6">
         <v>158632</v>
       </c>
-      <c r="R22" s="8">
+      <c r="S25" s="7">
         <v>168030</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="8"/>
+    <row r="26" spans="1:19">
+      <c r="A26" s="14"/>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
+    <row r="27" spans="1:19">
+      <c r="A27" s="14"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="14"/>
+      <c r="B28" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6">
         <v>31654</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7">
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6">
         <v>82448</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="8"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6">
+        <v>155563</v>
+      </c>
+      <c r="R28" s="6">
+        <v>245233</v>
+      </c>
+      <c r="S28" s="7"/>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+    <row r="29" spans="1:19">
+      <c r="A29" s="14"/>
+      <c r="B29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6">
         <v>21574</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7">
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6">
         <v>52729</v>
       </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="8"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6">
+        <v>102054</v>
+      </c>
+      <c r="R29" s="6">
+        <v>152819</v>
+      </c>
+      <c r="S29" s="7"/>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
+    <row r="30" spans="1:19">
+      <c r="A30" s="14"/>
+      <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6">
         <v>15377</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7">
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6">
         <v>36718</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="8"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6">
+        <v>74008</v>
+      </c>
+      <c r="R30" s="6">
+        <v>136832</v>
+      </c>
+      <c r="S30" s="7"/>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="8"/>
+    <row r="31" spans="1:19">
+      <c r="A31" s="14"/>
+      <c r="B31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6">
+        <v>71957</v>
+      </c>
+      <c r="R31" s="6">
+        <v>137698</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
+    <row r="32" spans="1:19">
+      <c r="A32" s="14"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="14"/>
+      <c r="B33" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="8"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="7"/>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
+    <row r="34" spans="1:19">
+      <c r="A34" s="14"/>
+      <c r="B34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="7"/>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+    <row r="35" spans="1:19">
+      <c r="A35" s="14"/>
+      <c r="B35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="7"/>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="8"/>
+    <row r="36" spans="1:19">
+      <c r="A36" s="14"/>
+      <c r="B36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
+    <row r="37" spans="1:19">
+      <c r="A37" s="14"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="14"/>
+      <c r="B38" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="9">
-        <f t="shared" ref="C32:I32" si="1">IF(ISERROR(AVERAGE(C28,C24,C20)),"",AVERAGE(C28,C24,C20))</f>
+      <c r="C38" s="2">
+        <f t="shared" ref="C38:J38" si="4">IF(ISERROR(AVERAGE(C33,C28,C23)),"",AVERAGE(C33,C28,C23))</f>
         <v>250</v>
       </c>
-      <c r="D32" s="9">
-        <f t="shared" si="1"/>
+      <c r="D38" s="2">
+        <f t="shared" si="4"/>
         <v>1825</v>
       </c>
-      <c r="E32" s="9">
-        <f t="shared" si="1"/>
+      <c r="E38" s="2">
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
-      <c r="F32" s="9">
-        <f t="shared" si="1"/>
+      <c r="F38" s="2">
+        <f t="shared" si="4"/>
         <v>2010</v>
       </c>
-      <c r="G32" s="9">
-        <f t="shared" si="1"/>
+      <c r="G38" s="2">
+        <f t="shared" si="4"/>
         <v>2434</v>
       </c>
-      <c r="H32" s="9">
-        <f t="shared" si="1"/>
+      <c r="H38" s="2">
+        <f t="shared" si="4"/>
         <v>2587</v>
       </c>
-      <c r="I32" s="9">
-        <f t="shared" si="1"/>
+      <c r="I38" s="2" t="str">
+        <f t="shared" ref="I38" si="5">IF(ISERROR(AVERAGE(I33,I28,I23)),"",AVERAGE(I33,I28,I23))</f>
+        <v/>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="4"/>
         <v>17001</v>
       </c>
-      <c r="J32" s="9">
-        <f t="shared" ref="J32:P32" si="2">IF(ISERROR(AVERAGE(J28,J24,J20)),"",AVERAGE(J28,J24,J20))</f>
+      <c r="K38" s="2">
+        <f t="shared" ref="K38:Q38" si="6">IF(ISERROR(AVERAGE(K33,K28,K23)),"",AVERAGE(K33,K28,K23))</f>
         <v>33292.5</v>
       </c>
-      <c r="K32" s="9">
-        <f t="shared" si="2"/>
+      <c r="L38" s="2">
+        <f t="shared" si="6"/>
         <v>52781</v>
       </c>
-      <c r="L32" s="9">
-        <f t="shared" si="2"/>
+      <c r="M38" s="2">
+        <f t="shared" si="6"/>
         <v>66186</v>
       </c>
-      <c r="M32" s="9">
-        <f t="shared" si="2"/>
+      <c r="N38" s="2">
+        <f t="shared" si="6"/>
         <v>82241</v>
       </c>
-      <c r="N32" s="9">
-        <f t="shared" si="2"/>
+      <c r="O38" s="2">
+        <f t="shared" si="6"/>
         <v>99257</v>
       </c>
-      <c r="O32" s="9">
-        <f t="shared" ref="O32" si="3">IF(ISERROR(AVERAGE(O28,O24,O20)),"",AVERAGE(O28,O24,O20))</f>
+      <c r="P38" s="2">
+        <f t="shared" ref="P38" si="7">IF(ISERROR(AVERAGE(P33,P28,P23)),"",AVERAGE(P33,P28,P23))</f>
         <v>108954</v>
       </c>
-      <c r="P32" s="9">
-        <f t="shared" si="2"/>
-        <v>173587</v>
-      </c>
-      <c r="Q32" s="9">
-        <f t="shared" ref="Q32" si="4">IF(ISERROR(AVERAGE(Q28,Q24,Q20)),"",AVERAGE(Q28,Q24,Q20))</f>
-        <v>236031</v>
-      </c>
-      <c r="R32" s="10">
-        <f>IF(ISERROR(AVERAGE(R28,R24,R20)),"",AVERAGE(R28,R24,R20))</f>
+      <c r="Q38" s="2">
+        <f t="shared" si="6"/>
+        <v>164575</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" ref="R38" si="8">IF(ISERROR(AVERAGE(R33,R28,R23)),"",AVERAGE(R33,R28,R23))</f>
+        <v>240632</v>
+      </c>
+      <c r="S38" s="2">
+        <f>IF(ISERROR(AVERAGE(S33,S28,S23)),"",AVERAGE(S33,S28,S23))</f>
         <v>325395</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
+    <row r="39" spans="1:19">
+      <c r="A39" s="14"/>
+      <c r="B39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="9">
-        <f t="shared" ref="C33:I33" si="5">IF(ISERROR(AVERAGE(C29,C25,C21)),"",AVERAGE(C29,C25,C21))</f>
+      <c r="C39" s="2">
+        <f t="shared" ref="C39:J39" si="9">IF(ISERROR(AVERAGE(C34,C29,C24)),"",AVERAGE(C34,C29,C24))</f>
         <v>2128</v>
       </c>
-      <c r="D33" s="9">
-        <f t="shared" si="5"/>
+      <c r="D39" s="2">
+        <f t="shared" si="9"/>
         <v>915</v>
       </c>
-      <c r="E33" s="9">
-        <f t="shared" si="5"/>
+      <c r="E39" s="2">
+        <f t="shared" si="9"/>
         <v>1264</v>
       </c>
-      <c r="F33" s="9">
-        <f t="shared" si="5"/>
+      <c r="F39" s="2">
+        <f t="shared" si="9"/>
         <v>1214</v>
       </c>
-      <c r="G33" s="9">
-        <f t="shared" si="5"/>
+      <c r="G39" s="2">
+        <f t="shared" si="9"/>
         <v>1032</v>
       </c>
-      <c r="H33" s="9">
-        <f t="shared" si="5"/>
+      <c r="H39" s="2">
+        <f t="shared" si="9"/>
         <v>1751</v>
       </c>
-      <c r="I33" s="9">
-        <f t="shared" si="5"/>
+      <c r="I39" s="2" t="str">
+        <f t="shared" ref="I39" si="10">IF(ISERROR(AVERAGE(I34,I29,I24)),"",AVERAGE(I34,I29,I24))</f>
+        <v/>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="9"/>
         <v>11317</v>
       </c>
-      <c r="J33" s="9">
-        <f t="shared" ref="J33:P33" si="6">IF(ISERROR(AVERAGE(J29,J25,J21)),"",AVERAGE(J29,J25,J21))</f>
+      <c r="K39" s="2">
+        <f t="shared" ref="K39:Q39" si="11">IF(ISERROR(AVERAGE(K34,K29,K24)),"",AVERAGE(K34,K29,K24))</f>
         <v>22537.5</v>
       </c>
-      <c r="K33" s="9">
-        <f t="shared" si="6"/>
+      <c r="L39" s="2">
+        <f t="shared" si="11"/>
         <v>28989</v>
       </c>
-      <c r="L33" s="9">
-        <f t="shared" si="6"/>
+      <c r="M39" s="2">
+        <f t="shared" si="11"/>
         <v>42555</v>
       </c>
-      <c r="M33" s="9">
-        <f t="shared" si="6"/>
+      <c r="N39" s="2">
+        <f t="shared" si="11"/>
         <v>52666.5</v>
       </c>
-      <c r="N33" s="9">
-        <f t="shared" si="6"/>
+      <c r="O39" s="2">
+        <f t="shared" si="11"/>
         <v>64818</v>
       </c>
-      <c r="O33" s="9">
-        <f t="shared" ref="O33" si="7">IF(ISERROR(AVERAGE(O29,O25,O21)),"",AVERAGE(O29,O25,O21))</f>
+      <c r="P39" s="2">
+        <f t="shared" ref="P39" si="12">IF(ISERROR(AVERAGE(P34,P29,P24)),"",AVERAGE(P34,P29,P24))</f>
         <v>71363</v>
       </c>
-      <c r="P33" s="9">
-        <f t="shared" si="6"/>
-        <v>110305</v>
-      </c>
-      <c r="Q33" s="9">
-        <f t="shared" ref="Q33" si="8">IF(ISERROR(AVERAGE(Q29,Q25,Q21)),"",AVERAGE(Q29,Q25,Q21))</f>
-        <v>169452</v>
-      </c>
-      <c r="R33" s="10">
-        <f>IF(ISERROR(AVERAGE(R29,R25,R21)),"",AVERAGE(R29,R25,R21))</f>
+      <c r="Q39" s="2">
+        <f t="shared" si="11"/>
+        <v>106179.5</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" ref="R39" si="13">IF(ISERROR(AVERAGE(R34,R29,R24)),"",AVERAGE(R34,R29,R24))</f>
+        <v>161135.5</v>
+      </c>
+      <c r="S39" s="2">
+        <f>IF(ISERROR(AVERAGE(S34,S29,S24)),"",AVERAGE(S34,S29,S24))</f>
         <v>211189</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
+    <row r="40" spans="1:19">
+      <c r="A40" s="14"/>
+      <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="13">
-        <f t="shared" ref="C34:I34" si="9">IF(ISERROR(AVERAGE(C30,C26,C22)),"",AVERAGE(C30,C26,C22))</f>
+      <c r="C40" s="2">
+        <f t="shared" ref="C40:J40" si="14">IF(ISERROR(AVERAGE(C35,C30,C25)),"",AVERAGE(C35,C30,C25))</f>
         <v>1519</v>
       </c>
-      <c r="D34" s="13">
-        <f t="shared" si="9"/>
+      <c r="D40" s="2">
+        <f t="shared" si="14"/>
         <v>913</v>
       </c>
-      <c r="E34" s="13">
-        <f t="shared" si="9"/>
+      <c r="E40" s="2">
+        <f t="shared" si="14"/>
         <v>937</v>
       </c>
-      <c r="F34" s="13">
-        <f t="shared" si="9"/>
+      <c r="F40" s="2">
+        <f t="shared" si="14"/>
         <v>967</v>
       </c>
-      <c r="G34" s="13">
-        <f t="shared" si="9"/>
+      <c r="G40" s="2">
+        <f t="shared" si="14"/>
         <v>933</v>
       </c>
-      <c r="H34" s="13">
-        <f t="shared" si="9"/>
+      <c r="H40" s="2">
+        <f t="shared" si="14"/>
         <v>1266</v>
       </c>
-      <c r="I34" s="13">
-        <f t="shared" si="9"/>
+      <c r="I40" s="2" t="str">
+        <f t="shared" ref="I40:O41" si="15">IF(ISERROR(AVERAGE(I35,I30,I25)),"",AVERAGE(I35,I30,I25))</f>
+        <v/>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="14"/>
         <v>8892</v>
       </c>
-      <c r="J34" s="13">
-        <f t="shared" ref="J34:P34" si="10">IF(ISERROR(AVERAGE(J30,J26,J22)),"",AVERAGE(J30,J26,J22))</f>
+      <c r="K40" s="2">
+        <f t="shared" ref="K40:Q40" si="16">IF(ISERROR(AVERAGE(K35,K30,K25)),"",AVERAGE(K35,K30,K25))</f>
         <v>16227</v>
       </c>
-      <c r="K34" s="13">
-        <f t="shared" si="10"/>
+      <c r="L40" s="2">
+        <f t="shared" si="16"/>
         <v>25333</v>
       </c>
-      <c r="L34" s="13">
-        <f t="shared" si="10"/>
+      <c r="M40" s="2">
+        <f t="shared" si="16"/>
         <v>33272</v>
       </c>
-      <c r="M34" s="13">
-        <f t="shared" si="10"/>
+      <c r="N40" s="2">
+        <f t="shared" si="16"/>
         <v>32167</v>
       </c>
-      <c r="N34" s="13">
-        <f t="shared" si="10"/>
+      <c r="O40" s="2">
+        <f t="shared" si="16"/>
         <v>44162</v>
       </c>
-      <c r="O34" s="13">
-        <f t="shared" ref="O34" si="11">IF(ISERROR(AVERAGE(O30,O26,O22)),"",AVERAGE(O30,O26,O22))</f>
+      <c r="P40" s="2">
+        <f t="shared" ref="P40:P41" si="17">IF(ISERROR(AVERAGE(P35,P30,P25)),"",AVERAGE(P35,P30,P25))</f>
         <v>53466</v>
       </c>
-      <c r="P34" s="13">
-        <f t="shared" si="10"/>
-        <v>83181</v>
-      </c>
-      <c r="Q34" s="13">
-        <f t="shared" ref="Q34" si="12">IF(ISERROR(AVERAGE(Q30,Q26,Q22)),"",AVERAGE(Q30,Q26,Q22))</f>
-        <v>158632</v>
-      </c>
-      <c r="R34" s="14">
-        <f>IF(ISERROR(AVERAGE(R30,R26,R22)),"",AVERAGE(R30,R26,R22))</f>
+      <c r="Q40" s="2">
+        <f t="shared" si="16"/>
+        <v>78594.5</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" ref="R40:S41" si="18">IF(ISERROR(AVERAGE(R35,R30,R25)),"",AVERAGE(R35,R30,R25))</f>
+        <v>147732</v>
+      </c>
+      <c r="S40" s="2">
+        <f>IF(ISERROR(AVERAGE(S35,S30,S25)),"",AVERAGE(S35,S30,S25))</f>
         <v>168030</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="3" t="s">
+    <row r="41" spans="1:19">
+      <c r="A41" s="15"/>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" ref="C41:H41" si="19">IF(ISERROR(AVERAGE(C36,C31,C26)),"",AVERAGE(C36,C31,C26))</f>
+        <v/>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M41" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="P41" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="Q41" s="2">
+        <f>IF(ISERROR(AVERAGE(Q36,Q31,Q26)),"",AVERAGE(Q36,Q31,Q26))</f>
+        <v>71957</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="18"/>
+        <v>137698</v>
+      </c>
+      <c r="S41" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="26" customHeight="1">
+      <c r="A43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="15">
-        <f>AVERAGE(C32,C16)</f>
-        <v>267.5</v>
-      </c>
-      <c r="D36" s="15">
-        <f t="shared" ref="D36:R36" si="13">AVERAGE(D32,D16)</f>
-        <v>2030.75</v>
-      </c>
-      <c r="E36" s="15">
-        <f t="shared" si="13"/>
-        <v>2126.5</v>
-      </c>
-      <c r="F36" s="15">
-        <f t="shared" si="13"/>
-        <v>2309.666666666667</v>
-      </c>
-      <c r="G36" s="15">
-        <f t="shared" si="13"/>
-        <v>2645.5</v>
-      </c>
-      <c r="H36" s="15">
-        <f t="shared" si="13"/>
-        <v>2851</v>
-      </c>
-      <c r="I36" s="15">
-        <f t="shared" si="13"/>
-        <v>14893.5</v>
-      </c>
-      <c r="J36" s="15">
-        <f t="shared" si="13"/>
-        <v>38430.25</v>
-      </c>
-      <c r="K36" s="15">
-        <f t="shared" si="13"/>
-        <v>56449.5</v>
-      </c>
-      <c r="L36" s="15">
-        <f t="shared" si="13"/>
-        <v>74025.75</v>
-      </c>
-      <c r="M36" s="15">
-        <f t="shared" si="13"/>
+      <c r="C43" s="2">
+        <f>AVERAGE(C38,C18)</f>
+        <v>260.16666666666663</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" ref="D43:S43" si="20">AVERAGE(D38,D18)</f>
+        <v>2114.166666666667</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="20"/>
+        <v>2137.75</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="20"/>
+        <v>2343.5</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="20"/>
+        <v>2670.5</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="20"/>
+        <v>2874.333333333333</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" ref="I43" si="21">AVERAGE(I38,I18)</f>
+        <v>8808.5</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="20"/>
+        <v>18599.75</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="20"/>
+        <v>37587.75</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="20"/>
+        <v>55035.75</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="20"/>
+        <v>74324.5</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="20"/>
         <v>103626</v>
       </c>
-      <c r="N36" s="15">
-        <f t="shared" si="13"/>
+      <c r="O43" s="2">
+        <f t="shared" si="20"/>
         <v>119333.5</v>
       </c>
-      <c r="O36" s="15">
-        <f t="shared" si="13"/>
+      <c r="P43" s="2">
+        <f t="shared" si="20"/>
         <v>108954</v>
       </c>
-      <c r="P36" s="15">
-        <f t="shared" si="13"/>
-        <v>173587</v>
-      </c>
-      <c r="Q36" s="15">
-        <f t="shared" ref="Q36" si="14">AVERAGE(Q32,Q16)</f>
-        <v>236031</v>
-      </c>
-      <c r="R36" s="16">
-        <f t="shared" si="13"/>
+      <c r="Q43" s="2">
+        <f t="shared" si="20"/>
+        <v>164575</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" ref="R43" si="22">AVERAGE(R38,R18)</f>
+        <v>240632</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="20"/>
         <v>325395</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7" t="s">
+    <row r="44" spans="1:19">
+      <c r="A44" s="14"/>
+      <c r="B44" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9">
-        <f t="shared" ref="C37:R37" si="15">AVERAGE(C33,C17)</f>
-        <v>2127</v>
-      </c>
-      <c r="D37" s="9">
-        <f t="shared" si="15"/>
-        <v>1077.75</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" si="15"/>
-        <v>1298</v>
-      </c>
-      <c r="F37" s="9">
-        <f t="shared" si="15"/>
-        <v>1320.1666666666665</v>
-      </c>
-      <c r="G37" s="9">
-        <f t="shared" si="15"/>
-        <v>1168.5</v>
-      </c>
-      <c r="H37" s="9">
-        <f t="shared" si="15"/>
-        <v>1931.5</v>
-      </c>
-      <c r="I37" s="9">
-        <f t="shared" si="15"/>
-        <v>10583.5</v>
-      </c>
-      <c r="J37" s="9">
-        <f t="shared" si="15"/>
-        <v>23838.25</v>
-      </c>
-      <c r="K37" s="9">
-        <f t="shared" si="15"/>
-        <v>34392</v>
-      </c>
-      <c r="L37" s="9">
-        <f t="shared" si="15"/>
-        <v>48463.75</v>
-      </c>
-      <c r="M37" s="9">
-        <f t="shared" si="15"/>
+      <c r="C44" s="2">
+        <f t="shared" ref="C44:S44" si="23">AVERAGE(C39,C19)</f>
+        <v>2157.666666666667</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="23"/>
+        <v>1170.6666666666665</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="23"/>
+        <v>1301.75</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="23"/>
+        <v>1286.6666666666665</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="23"/>
+        <v>1183.25</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="23"/>
+        <v>1980</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" ref="I44" si="24">AVERAGE(I39,I19)</f>
+        <v>6191</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="23"/>
+        <v>12951.25</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="23"/>
+        <v>24002</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="23"/>
+        <v>33601.75</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="23"/>
+        <v>48955.833333333328</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="23"/>
         <v>67172.75</v>
       </c>
-      <c r="N37" s="9">
-        <f t="shared" si="15"/>
+      <c r="O44" s="2">
+        <f t="shared" si="23"/>
         <v>76205.5</v>
       </c>
-      <c r="O37" s="9">
-        <f t="shared" si="15"/>
+      <c r="P44" s="2">
+        <f t="shared" si="23"/>
         <v>71363</v>
       </c>
-      <c r="P37" s="9">
-        <f t="shared" si="15"/>
-        <v>110305</v>
-      </c>
-      <c r="Q37" s="9">
-        <f t="shared" ref="Q37" si="16">AVERAGE(Q33,Q17)</f>
-        <v>169452</v>
-      </c>
-      <c r="R37" s="10">
-        <f t="shared" si="15"/>
+      <c r="Q44" s="2">
+        <f t="shared" si="23"/>
+        <v>106179.5</v>
+      </c>
+      <c r="R44" s="2">
+        <f t="shared" ref="R44" si="25">AVERAGE(R39,R19)</f>
+        <v>161135.5</v>
+      </c>
+      <c r="S44" s="2">
+        <f t="shared" si="23"/>
         <v>211189</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12" t="s">
+    <row r="45" spans="1:19">
+      <c r="A45" s="14"/>
+      <c r="B45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="13">
-        <f t="shared" ref="C38:R38" si="17">AVERAGE(C34,C18)</f>
-        <v>1310.5</v>
-      </c>
-      <c r="D38" s="13">
-        <f t="shared" si="17"/>
-        <v>1007.5</v>
-      </c>
-      <c r="E38" s="13">
-        <f t="shared" si="17"/>
-        <v>1064.5</v>
-      </c>
-      <c r="F38" s="13">
-        <f t="shared" si="17"/>
-        <v>1072.8333333333335</v>
-      </c>
-      <c r="G38" s="13">
-        <f t="shared" si="17"/>
-        <v>1066</v>
-      </c>
-      <c r="H38" s="13">
-        <f t="shared" si="17"/>
-        <v>1470</v>
-      </c>
-      <c r="I38" s="13">
-        <f t="shared" si="17"/>
-        <v>7094.5</v>
-      </c>
-      <c r="J38" s="13">
-        <f t="shared" si="17"/>
-        <v>16959.5</v>
-      </c>
-      <c r="K38" s="13">
-        <f t="shared" si="17"/>
-        <v>26996</v>
-      </c>
-      <c r="L38" s="13">
-        <f t="shared" si="17"/>
-        <v>41385</v>
-      </c>
-      <c r="M38" s="13">
-        <f t="shared" si="17"/>
+      <c r="C45" s="2">
+        <f t="shared" ref="C45:S46" si="26">AVERAGE(C40,C20)</f>
+        <v>1352.1666666666665</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="26"/>
+        <v>1004.3333333333334</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="26"/>
+        <v>1099.25</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="26"/>
+        <v>1136.5</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="26"/>
+        <v>1097.75</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="26"/>
+        <v>1441.1666666666665</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" ref="I45" si="27">AVERAGE(I40,I20)</f>
+        <v>3849</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="26"/>
+        <v>9689.5</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="26"/>
+        <v>17323.75</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="26"/>
+        <v>28300.5</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="26"/>
+        <v>40499.666666666672</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="26"/>
         <v>44451.5</v>
       </c>
-      <c r="N38" s="13">
-        <f t="shared" si="17"/>
+      <c r="O45" s="2">
+        <f t="shared" si="26"/>
         <v>54203</v>
       </c>
-      <c r="O38" s="13">
-        <f t="shared" si="17"/>
+      <c r="P45" s="2">
+        <f t="shared" si="26"/>
         <v>53466</v>
       </c>
-      <c r="P38" s="13">
-        <f t="shared" si="17"/>
-        <v>83181</v>
-      </c>
-      <c r="Q38" s="13">
-        <f t="shared" ref="Q38" si="18">AVERAGE(Q34,Q18)</f>
-        <v>158632</v>
-      </c>
-      <c r="R38" s="14">
-        <f t="shared" si="17"/>
+      <c r="Q45" s="2">
+        <f t="shared" si="26"/>
+        <v>78594.5</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" ref="R45" si="28">AVERAGE(R40,R20)</f>
+        <v>147732</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" si="26"/>
         <v>168030</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="3" t="s">
+    <row r="46" spans="1:19">
+      <c r="A46" s="15"/>
+      <c r="B46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="26"/>
+        <v>795</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="26"/>
+        <v>748</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="26"/>
+        <v>976</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="26"/>
+        <v>1442</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="26"/>
+        <v>1205</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="26"/>
+        <v>1412.5</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" ref="I46:S46" si="29">AVERAGE(I41,I21)</f>
+        <v>3225.5</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="29"/>
+        <v>10430</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="29"/>
+        <v>19968</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="29"/>
+        <v>25596</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="29"/>
+        <v>40274</v>
+      </c>
+      <c r="N46" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="29"/>
+        <v>71957</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="29"/>
+        <v>137698</v>
+      </c>
+      <c r="S46" s="2" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="26" customHeight="1">
+      <c r="A48" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="22">
-        <f>C36/C$2*1000</f>
-        <v>267500</v>
-      </c>
-      <c r="D40" s="22">
-        <f t="shared" ref="D40:R40" si="19">D36/D$2*1000</f>
-        <v>203075</v>
-      </c>
-      <c r="E40" s="22">
-        <f t="shared" si="19"/>
-        <v>21265</v>
-      </c>
-      <c r="F40" s="22">
-        <f t="shared" si="19"/>
-        <v>2309.666666666667</v>
-      </c>
-      <c r="G40" s="22">
-        <f t="shared" si="19"/>
-        <v>264.55</v>
-      </c>
-      <c r="H40" s="22">
-        <f t="shared" si="19"/>
-        <v>28.51</v>
-      </c>
-      <c r="I40" s="22">
-        <f t="shared" si="19"/>
-        <v>14.893500000000001</v>
-      </c>
-      <c r="J40" s="22">
-        <f t="shared" si="19"/>
-        <v>19.215125</v>
-      </c>
-      <c r="K40" s="22">
-        <f t="shared" si="19"/>
-        <v>18.816500000000001</v>
-      </c>
-      <c r="L40" s="22">
-        <f t="shared" si="19"/>
-        <v>18.506437500000001</v>
-      </c>
-      <c r="M40" s="22">
-        <f t="shared" si="19"/>
+      <c r="C48" s="12">
+        <f>C43/C$1*1000</f>
+        <v>260166.66666666663</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" ref="D48:S48" si="30">D43/D$1*1000</f>
+        <v>211416.66666666669</v>
+      </c>
+      <c r="E48" s="12">
+        <f t="shared" si="30"/>
+        <v>21377.5</v>
+      </c>
+      <c r="F48" s="12">
+        <f t="shared" si="30"/>
+        <v>2343.5</v>
+      </c>
+      <c r="G48" s="12">
+        <f t="shared" si="30"/>
+        <v>267.05</v>
+      </c>
+      <c r="H48" s="12">
+        <f t="shared" si="30"/>
+        <v>28.743333333333329</v>
+      </c>
+      <c r="I48" s="12">
+        <f t="shared" ref="I48" si="31">I43/I$1*1000</f>
+        <v>17.617000000000001</v>
+      </c>
+      <c r="J48" s="12">
+        <f t="shared" si="30"/>
+        <v>18.59975</v>
+      </c>
+      <c r="K48" s="12">
+        <f t="shared" si="30"/>
+        <v>18.793875</v>
+      </c>
+      <c r="L48" s="12">
+        <f t="shared" si="30"/>
+        <v>18.34525</v>
+      </c>
+      <c r="M48" s="12">
+        <f t="shared" si="30"/>
+        <v>18.581125</v>
+      </c>
+      <c r="N48" s="12">
+        <f t="shared" si="30"/>
         <v>20.725200000000001</v>
       </c>
-      <c r="N40" s="22">
-        <f t="shared" si="19"/>
+      <c r="O48" s="12">
+        <f t="shared" si="30"/>
         <v>19.888916666666667</v>
       </c>
-      <c r="O40" s="22">
-        <f t="shared" si="19"/>
+      <c r="P48" s="12">
+        <f t="shared" si="30"/>
         <v>15.564857142857143</v>
       </c>
-      <c r="P40" s="22">
-        <f t="shared" si="19"/>
-        <v>17.358700000000002</v>
-      </c>
-      <c r="Q40" s="22">
-        <f t="shared" si="19"/>
-        <v>15.7354</v>
-      </c>
-      <c r="R40" s="22">
-        <f t="shared" si="19"/>
+      <c r="Q48" s="12">
+        <f t="shared" si="30"/>
+        <v>16.4575</v>
+      </c>
+      <c r="R48" s="12">
+        <f t="shared" si="30"/>
+        <v>16.042133333333332</v>
+      </c>
+      <c r="S48" s="12">
+        <f t="shared" si="30"/>
         <v>16.269749999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7" t="s">
+    <row r="49" spans="1:19">
+      <c r="A49" s="14"/>
+      <c r="B49" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="22">
-        <f t="shared" ref="C41:R42" si="20">C37/C$2*1000</f>
-        <v>2127000</v>
-      </c>
-      <c r="D41" s="22">
-        <f t="shared" si="20"/>
-        <v>107775</v>
-      </c>
-      <c r="E41" s="22">
-        <f t="shared" si="20"/>
-        <v>12980</v>
-      </c>
-      <c r="F41" s="22">
-        <f t="shared" si="20"/>
-        <v>1320.1666666666665</v>
-      </c>
-      <c r="G41" s="22">
-        <f t="shared" si="20"/>
-        <v>116.85</v>
-      </c>
-      <c r="H41" s="22">
-        <f t="shared" si="20"/>
-        <v>19.314999999999998</v>
-      </c>
-      <c r="I41" s="22">
-        <f t="shared" si="20"/>
-        <v>10.583499999999999</v>
-      </c>
-      <c r="J41" s="22">
-        <f t="shared" si="20"/>
-        <v>11.919124999999999</v>
-      </c>
-      <c r="K41" s="22">
-        <f t="shared" si="20"/>
-        <v>11.464</v>
-      </c>
-      <c r="L41" s="22">
-        <f t="shared" si="20"/>
-        <v>12.115937499999999</v>
-      </c>
-      <c r="M41" s="22">
-        <f t="shared" si="20"/>
+      <c r="C49" s="12">
+        <f t="shared" ref="C49:S51" si="32">C44/C$1*1000</f>
+        <v>2157666.666666667</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="32"/>
+        <v>117066.66666666664</v>
+      </c>
+      <c r="E49" s="12">
+        <f t="shared" si="32"/>
+        <v>13017.5</v>
+      </c>
+      <c r="F49" s="12">
+        <f t="shared" si="32"/>
+        <v>1286.6666666666665</v>
+      </c>
+      <c r="G49" s="12">
+        <f t="shared" si="32"/>
+        <v>118.325</v>
+      </c>
+      <c r="H49" s="12">
+        <f t="shared" si="32"/>
+        <v>19.8</v>
+      </c>
+      <c r="I49" s="12">
+        <f t="shared" ref="I49" si="33">I44/I$1*1000</f>
+        <v>12.382000000000001</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="32"/>
+        <v>12.95125</v>
+      </c>
+      <c r="K49" s="12">
+        <f t="shared" si="32"/>
+        <v>12.000999999999999</v>
+      </c>
+      <c r="L49" s="12">
+        <f t="shared" si="32"/>
+        <v>11.200583333333332</v>
+      </c>
+      <c r="M49" s="12">
+        <f t="shared" si="32"/>
+        <v>12.238958333333333</v>
+      </c>
+      <c r="N49" s="12">
+        <f t="shared" si="32"/>
         <v>13.43455</v>
       </c>
-      <c r="N41" s="22">
-        <f t="shared" si="20"/>
+      <c r="O49" s="12">
+        <f t="shared" si="32"/>
         <v>12.700916666666666</v>
       </c>
-      <c r="O41" s="22">
-        <f t="shared" si="20"/>
+      <c r="P49" s="12">
+        <f t="shared" si="32"/>
         <v>10.194714285714285</v>
       </c>
-      <c r="P41" s="22">
-        <f t="shared" si="20"/>
-        <v>11.0305</v>
-      </c>
-      <c r="Q41" s="22">
-        <f t="shared" si="20"/>
-        <v>11.296799999999999</v>
-      </c>
-      <c r="R41" s="22">
-        <f t="shared" si="20"/>
+      <c r="Q49" s="12">
+        <f t="shared" si="32"/>
+        <v>10.617949999999999</v>
+      </c>
+      <c r="R49" s="12">
+        <f t="shared" si="32"/>
+        <v>10.742366666666666</v>
+      </c>
+      <c r="S49" s="12">
+        <f t="shared" si="32"/>
         <v>10.55945</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12" t="s">
+    <row r="50" spans="1:19">
+      <c r="A50" s="14"/>
+      <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="22">
-        <f t="shared" si="20"/>
-        <v>1310500</v>
-      </c>
-      <c r="D42" s="22">
-        <f t="shared" si="20"/>
-        <v>100750</v>
-      </c>
-      <c r="E42" s="22">
-        <f t="shared" si="20"/>
-        <v>10645</v>
-      </c>
-      <c r="F42" s="22">
-        <f t="shared" si="20"/>
-        <v>1072.8333333333335</v>
-      </c>
-      <c r="G42" s="22">
-        <f t="shared" si="20"/>
-        <v>106.6</v>
-      </c>
-      <c r="H42" s="22">
-        <f t="shared" si="20"/>
-        <v>14.7</v>
-      </c>
-      <c r="I42" s="22">
-        <f t="shared" si="20"/>
-        <v>7.0945</v>
-      </c>
-      <c r="J42" s="22">
-        <f t="shared" si="20"/>
-        <v>8.4797499999999992</v>
-      </c>
-      <c r="K42" s="22">
-        <f t="shared" si="20"/>
-        <v>8.9986666666666668</v>
-      </c>
-      <c r="L42" s="22">
-        <f t="shared" si="20"/>
-        <v>10.34625</v>
-      </c>
-      <c r="M42" s="22">
-        <f t="shared" si="20"/>
+      <c r="C50" s="12">
+        <f t="shared" si="32"/>
+        <v>1352166.6666666665</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="32"/>
+        <v>100433.33333333334</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="32"/>
+        <v>10992.5</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="32"/>
+        <v>1136.5</v>
+      </c>
+      <c r="G50" s="12">
+        <f t="shared" si="32"/>
+        <v>109.77499999999999</v>
+      </c>
+      <c r="H50" s="12">
+        <f t="shared" si="32"/>
+        <v>14.411666666666665</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" ref="I50" si="34">I45/I$1*1000</f>
+        <v>7.6980000000000004</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="32"/>
+        <v>9.6895000000000007</v>
+      </c>
+      <c r="K50" s="12">
+        <f t="shared" si="32"/>
+        <v>8.6618750000000002</v>
+      </c>
+      <c r="L50" s="12">
+        <f t="shared" si="32"/>
+        <v>9.4334999999999987</v>
+      </c>
+      <c r="M50" s="12">
+        <f t="shared" si="32"/>
+        <v>10.124916666666667</v>
+      </c>
+      <c r="N50" s="12">
+        <f t="shared" si="32"/>
         <v>8.8902999999999999</v>
       </c>
-      <c r="N42" s="22">
-        <f t="shared" si="20"/>
+      <c r="O50" s="12">
+        <f t="shared" si="32"/>
         <v>9.0338333333333338</v>
       </c>
-      <c r="O42" s="22">
-        <f t="shared" si="20"/>
+      <c r="P50" s="12">
+        <f t="shared" si="32"/>
         <v>7.6379999999999999</v>
       </c>
-      <c r="P42" s="22">
-        <f t="shared" si="20"/>
-        <v>8.3180999999999994</v>
-      </c>
-      <c r="Q42" s="22">
-        <f t="shared" si="20"/>
-        <v>10.575466666666667</v>
-      </c>
-      <c r="R42" s="22">
-        <f t="shared" si="20"/>
+      <c r="Q50" s="12">
+        <f t="shared" si="32"/>
+        <v>7.8594500000000007</v>
+      </c>
+      <c r="R50" s="12">
+        <f t="shared" si="32"/>
+        <v>9.8487999999999989</v>
+      </c>
+      <c r="S50" s="12">
+        <f t="shared" si="32"/>
         <v>8.4014999999999986</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="15"/>
+      <c r="B51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="32"/>
+        <v>795000</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="32"/>
+        <v>74800</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="32"/>
+        <v>9760</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="32"/>
+        <v>1442</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="32"/>
+        <v>120.5</v>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="32"/>
+        <v>14.125</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" ref="I51" si="35">I46/I$1*1000</f>
+        <v>6.4510000000000005</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="32"/>
+        <v>10.43</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="32"/>
+        <v>9.984</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="32"/>
+        <v>8.532</v>
+      </c>
+      <c r="M51" s="12">
+        <f t="shared" si="32"/>
+        <v>10.068499999999998</v>
+      </c>
+      <c r="N51" s="12" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O51" s="12" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P51" s="12" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q51" s="12">
+        <f t="shared" si="32"/>
+        <v>7.1957000000000004</v>
+      </c>
+      <c r="R51" s="12">
+        <f t="shared" si="32"/>
+        <v>9.1798666666666655</v>
+      </c>
+      <c r="S51" s="12" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="A20:A34"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A23:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
